--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,28 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,14 +33,29 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +86,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,19 +125,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -151,10 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -170,36 +155,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -260,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,10 +257,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +291,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -503,17 +466,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -521,307 +484,207 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43211</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>43316</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>33243</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43316</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="4">
+        <v>33550</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>43493</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>33550</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="2">
+        <v>34644</v>
+      </c>
+      <c r="D3" s="2">
         <f>SUM(C3,-C2)</f>
-        <v>307</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="18">
+        <v>1094</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="9">
         <f>PRODUCT(D3,E3)</f>
-        <v>1381.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43493</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>4999.58</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4999.58</v>
+      </c>
+      <c r="H3" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="3">
+        <v>43552</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>34644</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2">
+        <v>35738</v>
+      </c>
+      <c r="D4" s="2">
         <f>SUM(C4,-C3)</f>
         <v>1094</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>4.57</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="9">
         <f>PRODUCT(D4,E4)</f>
         <v>4999.58</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43552</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="10">
+        <v>4999.58</v>
+      </c>
+      <c r="H4" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A5" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>35738</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
+        <v>36738</v>
+      </c>
+      <c r="D5" s="2">
         <f>SUM(C5,-C4)</f>
-        <v>1094</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="9">
         <f>PRODUCT(D5,E5)</f>
-        <v>4999.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43676</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>4490</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4490</v>
+      </c>
+      <c r="H5" s="10">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A6" s="3">
+        <v>43817</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
-        <v>36738</v>
-      </c>
-      <c r="D7" s="3">
-        <f>SUM(C7,-C5)</f>
-        <v>1000</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C6" s="2">
+        <v>37848</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM(C6,-C5)</f>
+        <v>1110</v>
+      </c>
+      <c r="E6" s="6">
         <v>4.49</v>
       </c>
-      <c r="F7" s="18">
-        <f>PRODUCT(D7,E7)</f>
-        <v>4490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43817</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>37738</v>
-      </c>
-      <c r="D8" s="3">
-        <f>SUM(C8,-C7)</f>
-        <v>1000</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="18">
-        <f>PRODUCT(D8,E8)</f>
-        <v>4490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F6" s="9">
+        <f>PRODUCT(D6,E6)</f>
+        <v>4983.9000000000005</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4983</v>
+      </c>
+      <c r="H6" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM(G2:G6)</f>
+        <v>19472.16</v>
+      </c>
+      <c r="H7" s="10">
+        <f>SUM(H2:H6)</f>
+        <v>19490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <f>SUM(H7,-G7)</f>
+        <v>17.840000000000146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -831,12 +694,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -845,12 +708,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -51,11 +51,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,9 +257,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -466,17 +468,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -491,7 +493,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="50.25" customHeight="1">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -517,7 +519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43316</v>
       </c>
@@ -533,7 +535,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43493</v>
       </c>
@@ -561,7 +563,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43552</v>
       </c>
@@ -589,7 +591,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43676</v>
       </c>
@@ -617,7 +619,7 @@
         <v>4490</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43817</v>
       </c>
@@ -645,46 +647,74 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>38836</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(C7,-C6)</f>
+        <v>988</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="9">
+        <f>PRODUCT(D7,E7)</f>
+        <v>4436.12</v>
       </c>
       <c r="G7" s="10">
-        <f>SUM(G2:G6)</f>
-        <v>19472.16</v>
+        <v>4436.12</v>
       </c>
       <c r="H7" s="10">
-        <f>SUM(H2:H6)</f>
-        <v>19490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(G2:G7)</f>
+        <v>23908.28</v>
+      </c>
       <c r="H8" s="10">
-        <f>SUM(H7,-G7)</f>
-        <v>17.840000000000146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+        <f>SUM(H2:H7)</f>
+        <v>23927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="6"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10">
+        <f>SUM(H8,-G8)</f>
+        <v>18.720000000001164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -694,12 +724,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -708,12 +738,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -676,21 +676,31 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
+      <c r="A8" s="3">
+        <v>44104</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>39901</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C7)</f>
+        <v>1065</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="9">
+        <f>PRODUCT(D8,E8)</f>
+        <v>5016.1499999999996</v>
       </c>
       <c r="G8" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>23908.28</v>
+        <v>5016.1499999999996</v>
       </c>
       <c r="H8" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>23927</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -698,23 +708,41 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="10">
+        <f>SUM(G2:G8)</f>
+        <v>28924.43</v>
+      </c>
       <c r="H9" s="10">
-        <f>SUM(H8,-G8)</f>
-        <v>18.720000000001164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUM(H2:H8)</f>
+        <v>28927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="6"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <f>SUM(H9,-G9)</f>
+        <v>2.569999999999709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,14 +546,14 @@
         <v>34644</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(C3,-C2)</f>
+        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
         <v>1094</v>
       </c>
       <c r="E3" s="6">
         <v>4.57</v>
       </c>
       <c r="F3" s="9">
-        <f>PRODUCT(D3,E3)</f>
+        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
         <v>4999.58</v>
       </c>
       <c r="G3" s="10">
@@ -574,14 +574,14 @@
         <v>35738</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C3)</f>
+        <f t="shared" si="0"/>
         <v>1094</v>
       </c>
       <c r="E4" s="6">
         <v>4.57</v>
       </c>
       <c r="F4" s="9">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" si="1"/>
         <v>4999.58</v>
       </c>
       <c r="G4" s="10">
@@ -602,14 +602,14 @@
         <v>36738</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C4)</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E5" s="6">
         <v>4.49</v>
       </c>
       <c r="F5" s="9">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="1"/>
         <v>4490</v>
       </c>
       <c r="G5" s="10">
@@ -630,14 +630,14 @@
         <v>37848</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C5)</f>
+        <f t="shared" si="0"/>
         <v>1110</v>
       </c>
       <c r="E6" s="6">
         <v>4.49</v>
       </c>
       <c r="F6" s="9">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="1"/>
         <v>4983.9000000000005</v>
       </c>
       <c r="G6" s="10">
@@ -658,14 +658,14 @@
         <v>38836</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C6)</f>
+        <f t="shared" si="0"/>
         <v>988</v>
       </c>
       <c r="E7" s="6">
         <v>4.49</v>
       </c>
       <c r="F7" s="9">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="1"/>
         <v>4436.12</v>
       </c>
       <c r="G7" s="10">
@@ -686,14 +686,14 @@
         <v>39901</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C7)</f>
+        <f t="shared" si="0"/>
         <v>1065</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="1"/>
         <v>5016.1499999999996</v>
       </c>
       <c r="G8" s="10">
@@ -704,21 +704,31 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
+      <c r="A9" s="3">
+        <v>44151</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>39951</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" ref="F9" si="2">PRODUCT(D9,E9)</f>
+        <v>235.5</v>
       </c>
       <c r="G9" s="10">
-        <f>SUM(G2:G8)</f>
-        <v>28924.43</v>
+        <v>235.5</v>
       </c>
       <c r="H9" s="10">
-        <f>SUM(H2:H8)</f>
-        <v>28927</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -726,23 +736,41 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(G2:G9)</f>
+        <v>29159.93</v>
+      </c>
       <c r="H10" s="10">
-        <f>SUM(H9,-G9)</f>
-        <v>2.569999999999709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUM(H2:H9)</f>
+        <v>29163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="6"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10">
+        <f>SUM(H10,-G10)</f>
+        <v>3.069999999999709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -732,21 +732,31 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
+      <c r="A10" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40185</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10" si="3">SUM(C10,-C9)</f>
+        <v>234</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" ref="F10" si="4">PRODUCT(D10,E10)</f>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G10" s="10">
-        <f>SUM(G2:G9)</f>
-        <v>29159.93</v>
+        <v>1102.1400000000001</v>
       </c>
       <c r="H10" s="10">
-        <f>SUM(H2:H9)</f>
-        <v>29163</v>
+        <v>1102.1400000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,23 +764,41 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="10">
+        <f>SUM(G2:G10)</f>
+        <v>30262.07</v>
+      </c>
       <c r="H11" s="10">
-        <f>SUM(H10,-G10)</f>
-        <v>3.069999999999709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUM(H2:H10)</f>
+        <v>30265.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10">
+        <f>SUM(H11,-G11)</f>
+        <v>3.069999999999709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -87,12 +87,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -165,6 +171,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,10 +703,10 @@
         <f t="shared" si="1"/>
         <v>5016.1499999999996</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <v>5016.1499999999996</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>5000</v>
       </c>
     </row>
@@ -760,21 +767,31 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
+      <c r="A11" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40820</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11" si="5">SUM(C11,-C10)</f>
+        <v>635</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" ref="F11" si="6">PRODUCT(D11,E11)</f>
+        <v>2990.85</v>
       </c>
       <c r="G11" s="10">
-        <f>SUM(G2:G10)</f>
-        <v>30262.07</v>
+        <v>2990.85</v>
       </c>
       <c r="H11" s="10">
-        <f>SUM(H2:H10)</f>
-        <v>30265.14</v>
+        <v>2990.85</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,23 +799,41 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G2:G11)</f>
+        <v>33252.92</v>
+      </c>
       <c r="H12" s="10">
-        <f>SUM(H11,-G11)</f>
-        <v>3.069999999999709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUM(H2:H11)</f>
+        <v>33255.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="6"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
+        <v>3.069999999999709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -795,45 +795,129 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>41482</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12" si="7">SUM(C12,-C11)</f>
+        <v>662</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ref="F12" si="8">PRODUCT(D12,E12)</f>
+        <v>3118.02</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3118.02</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3118.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42397</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="9">SUM(C13,-C12)</f>
+        <v>915</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" ref="F13" si="10">PRODUCT(D13,E13)</f>
+        <v>4309.6499999999996</v>
+      </c>
+      <c r="G13" s="10">
+        <v>4309.6499999999996</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4309.6499999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43258</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="11">SUM(C14,-C13)</f>
+        <v>861</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14" si="12">PRODUCT(D14,E14)</f>
+        <v>4055.31</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4055.31</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4055.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="10">
-        <f>SUM(G2:G11)</f>
-        <v>33252.92</v>
-      </c>
-      <c r="H12" s="10">
-        <f>SUM(H2:H11)</f>
-        <v>33255.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="10">
+        <f>SUM(G2:G14)</f>
+        <v>44735.899999999994</v>
+      </c>
+      <c r="H15" s="10">
+        <f>SUM(H2:H14)</f>
+        <v>44738.969999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11">
+        <f>SUM(H15,-G15)</f>
         <v>3.069999999999709</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -879,45 +879,101 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
+      <c r="A15" s="3">
+        <v>44382</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44467</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="13">SUM(C15,-C14)</f>
+        <v>1209</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" ref="F15" si="14">PRODUCT(D15,E15)</f>
+        <v>5996.64</v>
       </c>
       <c r="G15" s="10">
-        <f>SUM(G2:G14)</f>
-        <v>44735.899999999994</v>
+        <v>5996.64</v>
       </c>
       <c r="H15" s="10">
-        <f>SUM(H2:H14)</f>
-        <v>44738.969999999994</v>
+        <v>5694.39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11">
-        <f>SUM(H15,-G15)</f>
-        <v>3.069999999999709</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44389</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44467</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16" si="15">SUM(C16,-C15)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16" si="16">PRODUCT(D16,E16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>302.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="10">
+        <f>SUM(G2:G16)</f>
+        <v>50732.539999999994</v>
+      </c>
+      <c r="H17" s="10">
+        <f>SUM(H2:H16)</f>
+        <v>50735.609999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11">
+        <f>SUM(H17,-G17)</f>
+        <v>3.069999999999709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -935,21 +935,31 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6" t="s">
-        <v>9</v>
+      <c r="A17" s="3">
+        <v>44439</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44818</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17" si="17">SUM(C17,-C16)</f>
+        <v>351</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" ref="F17" si="18">PRODUCT(D17,E17)</f>
+        <v>1740.96</v>
       </c>
       <c r="G17" s="10">
-        <f>SUM(G2:G16)</f>
-        <v>50732.539999999994</v>
+        <v>1740.96</v>
       </c>
       <c r="H17" s="10">
-        <f>SUM(H2:H16)</f>
-        <v>50735.609999999993</v>
+        <v>1740.96</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -957,23 +967,41 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11">
-        <f>SUM(H17,-G17)</f>
-        <v>3.069999999999709</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(G2:G17)</f>
+        <v>52473.499999999993</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H2:H17)</f>
+        <v>52476.569999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="6"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="11">
+        <f>SUM(H18,-G18)</f>
+        <v>3.069999999999709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -963,21 +963,31 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6" t="s">
-        <v>9</v>
+      <c r="A18" s="3">
+        <v>44480</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45236</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18" si="19">SUM(C18,-C17)</f>
+        <v>418</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18" si="20">PRODUCT(D18,E18)</f>
+        <v>2073.2800000000002</v>
       </c>
       <c r="G18" s="10">
-        <f>SUM(G2:G17)</f>
-        <v>52473.499999999993</v>
+        <v>2073.2800000000002</v>
       </c>
       <c r="H18" s="10">
-        <f>SUM(H2:H17)</f>
-        <v>52476.569999999992</v>
+        <v>2073.2800000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,23 +995,41 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11">
-        <f>SUM(H18,-G18)</f>
-        <v>3.069999999999709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="10">
+        <f>SUM(G2:G18)</f>
+        <v>54546.779999999992</v>
+      </c>
+      <c r="H19" s="10">
+        <f>SUM(H2:H18)</f>
+        <v>54549.849999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="6"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="11">
+        <f>SUM(H19,-G19)</f>
+        <v>3.069999999999709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/319ee.xlsx
+++ b/sputnik/personal/ee/319ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -479,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -991,45 +988,83 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6" t="s">
-        <v>9</v>
+      <c r="A19" s="3">
+        <v>44529</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>46164</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19" si="21">SUM(C19,-C18)</f>
+        <v>928</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" ref="F19" si="22">PRODUCT(D19,E19)</f>
+        <v>4602.88</v>
       </c>
       <c r="G19" s="10">
-        <f>SUM(G2:G18)</f>
-        <v>54546.779999999992</v>
+        <v>4602.88</v>
       </c>
       <c r="H19" s="10">
-        <f>SUM(H2:H18)</f>
-        <v>54549.849999999991</v>
+        <v>4602.88</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11">
-        <f>SUM(H19,-G19)</f>
-        <v>3.069999999999709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44539</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>46519</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20" si="23">SUM(C20,-C19)</f>
+        <v>355</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20" si="24">PRODUCT(D20,E20)</f>
+        <v>1760.8</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1760.8</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1760.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="6"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="11">
+        <f>SUM(H19,-G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
